--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\indp\UniversalCloud\UC-ImageApp-ChristmasHDWallpapers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F271172D-4257-411F-BE05-EF089B44B502}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB9B986-AA74-4765-A71C-263F1F08BD15}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="249" xr2:uid="{B8895C67-6952-4A81-99F9-7D657C537D61}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3739" uniqueCount="3735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4410" uniqueCount="4401">
   <si>
     <t>Headers</t>
   </si>
@@ -11235,6 +11235,2004 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-3DAbstractWallpapers/master/C7/HD/700.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/1.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/2.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/3.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/4.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/5.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/6.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/7.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/8.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/9.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/10.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/11.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/12.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/13.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/14.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/15.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/16.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/17.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/18.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/19.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/20.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/21.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/22.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/23.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/24.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/25.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/26.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/27.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/28.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/29.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/30.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/31.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/32.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/33.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/34.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/35.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/36.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/37.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/38.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/39.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/40.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/41.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/42.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/43.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/44.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/45.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/46.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/47.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/48.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/49.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/50.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/51.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/52.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/53.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/54.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/55.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/56.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/57.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/58.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/59.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/60.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/61.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/62.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/63.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/64.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/65.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/66.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/67.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/68.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/69.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/70.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/71.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/72.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/73.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/74.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/75.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/76.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/77.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/78.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/79.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/80.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/81.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/82.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/83.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/84.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/85.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/86.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/87.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/88.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/89.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/90.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/91.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/92.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/93.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/94.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/95.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/96.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/97.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/98.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/99.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/100.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/101.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/102.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/103.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/104.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/105.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/106.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/107.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/108.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/109.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/110.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/111.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/112.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/113.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/114.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/115.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/116.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/117.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/118.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/119.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/120.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/121.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/122.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/123.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/124.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/125.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/126.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/127.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/128.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/129.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/130.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/131.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/132.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/TH/133.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/1.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/2.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/3.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/4.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/5.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/6.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/7.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/8.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/9.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/10.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/11.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/12.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/13.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/14.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/15.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/16.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/17.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/18.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/19.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/20.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/21.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/22.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/23.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/24.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/25.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/26.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/27.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/28.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/29.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/30.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/31.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/32.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/33.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/34.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/35.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/36.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/37.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/38.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/39.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/40.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/41.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/42.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/43.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/44.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/45.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/46.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/47.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/48.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/49.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/TH/50.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/1.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/2.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/3.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/4.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/5.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/6.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/7.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/8.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/9.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/10.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/11.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/12.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/13.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/14.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/15.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/16.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/17.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/18.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/19.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/20.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/21.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/22.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/23.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/24.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/25.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/26.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/27.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/28.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/29.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/30.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/31.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/32.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/33.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/34.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/35.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/36.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/37.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/38.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/39.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/40.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/41.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/42.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/43.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/44.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/45.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/46.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/47.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/48.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/49.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/TH/50.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/1.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/2.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/3.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/4.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/5.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/6.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/7.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/8.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/9.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/10.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/11.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/12.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/13.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/14.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/15.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/16.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/17.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/18.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/19.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/20.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/21.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/22.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/23.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/24.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/25.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/26.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/27.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/28.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/29.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/30.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/31.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/32.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/33.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/34.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/35.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/36.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/37.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/38.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/39.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/40.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/41.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/42.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/43.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/44.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/45.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/46.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/47.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/48.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/49.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/TH/50.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/1.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/2.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/3.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/4.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/5.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/6.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/7.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/8.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/9.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/10.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/11.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/12.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/13.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/14.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/15.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/16.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/17.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/18.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/19.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/20.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/21.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/22.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/23.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/24.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/25.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/26.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/27.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/28.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/29.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/30.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/31.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/32.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/33.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/34.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/35.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/36.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/37.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/38.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/39.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/40.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/41.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/42.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/43.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/44.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/45.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/46.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/47.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/48.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/49.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/TH/50.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/1.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/2.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/3.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/4.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/5.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/6.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/7.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/8.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/9.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/10.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/11.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/12.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/13.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/14.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/15.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/16.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/17.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/18.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/19.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/20.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/21.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/22.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/23.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/24.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/25.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/26.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/27.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/28.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/29.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/30.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/31.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/32.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/33.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/34.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/35.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/36.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/37.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/38.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/39.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/40.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/41.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/42.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/43.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/44.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/45.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/46.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/47.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/48.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/49.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/50.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/51.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/52.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/53.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/54.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/55.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/56.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/57.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/58.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/59.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/60.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/61.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/62.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/63.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/64.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/65.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/66.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/67.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/68.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/69.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/70.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/71.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/72.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/73.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/74.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/75.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/76.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/77.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/78.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/79.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/80.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/81.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/82.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/83.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/84.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/85.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/86.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/87.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/88.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/89.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/90.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/91.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/92.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/93.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/94.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/95.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/96.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/97.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/98.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/99.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/100.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/101.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/102.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/103.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/104.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/105.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/106.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/107.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/108.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/109.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/110.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/111.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/112.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/113.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/114.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/115.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/116.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/117.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/118.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/119.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/120.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/121.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/122.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/123.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/124.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/125.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/126.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/127.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/128.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/129.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/130.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/131.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/132.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C1/HD/133.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/1.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/2.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/3.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/4.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/5.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/6.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/7.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/8.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/9.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/10.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/11.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/12.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/13.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/14.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/15.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/16.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/17.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/18.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/19.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/20.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/21.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/22.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/23.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/24.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/25.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/26.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/27.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/28.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/29.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/30.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/31.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/32.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/33.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/34.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/35.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/36.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/37.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/38.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/39.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/40.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/41.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/42.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/43.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/44.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/45.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/46.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/47.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/48.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/49.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C2/HD/50.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/1.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/2.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/3.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/4.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/5.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/6.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/7.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/8.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/9.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/10.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/11.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/12.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/13.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/14.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/15.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/16.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/17.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/18.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/19.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/20.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/21.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/22.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/23.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/24.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/25.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/26.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/27.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/28.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/29.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/30.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/31.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/32.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/33.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/34.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/35.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/36.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/37.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/38.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/39.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/40.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/41.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/42.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/43.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/44.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/45.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/46.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/47.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/48.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/49.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C3/HD/50.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/1.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/2.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/3.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/4.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/5.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/6.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/7.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/8.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/9.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/10.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/11.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/12.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/13.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/14.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/15.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/16.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/17.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/18.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/19.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/20.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/21.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/22.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/23.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/24.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/25.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/26.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/27.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/28.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/29.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/30.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/31.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/32.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/33.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/34.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/35.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/36.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/37.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/38.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/39.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/40.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/41.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/42.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/43.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/44.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/45.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/46.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/47.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/48.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/49.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C4/HD/50.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/1.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/2.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/3.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/4.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/5.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/6.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/7.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/8.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/9.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/10.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/11.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/12.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/13.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/14.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/15.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/16.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/17.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/18.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/19.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/20.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/21.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/22.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/23.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/24.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/25.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/26.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/27.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/28.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/29.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/30.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/31.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/32.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/33.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/34.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/35.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/36.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/37.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/38.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/39.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/40.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/41.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/42.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/43.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/44.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/45.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/46.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/47.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/48.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/49.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-ChristmasHDWallpapers/master/C5/HD/50.jpg</t>
   </si>
 </sst>
 </file>
@@ -11633,7 +13631,7 @@
   <dimension ref="A1:AY1859"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11774,19 +13772,42 @@
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="9" t="s">
+        <v>3735</v>
+      </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
+      <c r="D2" s="9" t="s">
+        <v>3735</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>4068</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>3868</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>4201</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>3918</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>4251</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>3968</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>4301</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>4018</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4351</v>
+      </c>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -11827,19 +13848,42 @@
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>3868</v>
+      </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>3736</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>4069</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>3869</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>4202</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>3919</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>4252</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>3969</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>4302</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>4019</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>4352</v>
+      </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -11880,19 +13924,42 @@
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="9" t="s">
+        <v>3918</v>
+      </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>3737</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>4070</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>3870</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>4203</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>3920</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>4253</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>3970</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>4303</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>4020</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>4353</v>
+      </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
@@ -11933,19 +14000,42 @@
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="9" t="s">
+        <v>3968</v>
+      </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>3738</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>4071</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>3871</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>4204</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>3921</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>4254</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>3971</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>4304</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>4021</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>4354</v>
+      </c>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
@@ -11986,19 +14076,42 @@
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="9" t="s">
+        <v>4018</v>
+      </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>3739</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>4072</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>3872</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>4205</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>3922</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>4255</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>3972</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>4305</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>4022</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>4355</v>
+      </c>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -12038,15 +14151,36 @@
     <row r="7" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="9"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>3740</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>4073</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>3873</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>4206</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>3923</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>4256</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>3973</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>4306</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>4023</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>4356</v>
+      </c>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -12086,15 +14220,36 @@
     <row r="8" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="9"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>3741</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>4074</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>3874</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>4207</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>3924</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>4257</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>3974</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>4307</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>4024</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>4357</v>
+      </c>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
@@ -12134,15 +14289,36 @@
     <row r="9" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="9"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>3742</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>4075</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>3875</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>4208</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>3925</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>4258</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>3975</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>4308</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>4025</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>4358</v>
+      </c>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
@@ -12182,15 +14358,36 @@
     <row r="10" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="9"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>3743</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>4076</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>3876</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>4209</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>3926</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>4259</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>3976</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>4309</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>4026</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>4359</v>
+      </c>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
@@ -12229,15 +14426,36 @@
     </row>
     <row r="11" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>3744</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>4077</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>3877</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>4210</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>3927</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>4260</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>3977</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>4310</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>4027</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>4360</v>
+      </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
@@ -12276,15 +14494,36 @@
     </row>
     <row r="12" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>3745</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>4078</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>3878</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>4211</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>3928</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>4261</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>3978</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>4311</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>4028</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>4361</v>
+      </c>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
@@ -12323,15 +14562,36 @@
     </row>
     <row r="13" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>3746</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>4079</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>3879</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>4212</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>3929</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>4262</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>3979</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>4312</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>4029</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>4362</v>
+      </c>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
@@ -12370,15 +14630,36 @@
     </row>
     <row r="14" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>3747</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>4080</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>3880</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>4213</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>3930</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>4263</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>3980</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>4313</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>4030</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>4363</v>
+      </c>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
@@ -12417,15 +14698,36 @@
     </row>
     <row r="15" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>3748</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>4081</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>3881</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>4214</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>3931</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>4264</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>3981</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>4314</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>4031</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>4364</v>
+      </c>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
@@ -12462,15 +14764,36 @@
     </row>
     <row r="16" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>3749</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>4082</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>3882</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>4215</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>3932</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>4265</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>3982</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>4315</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>4032</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>4365</v>
+      </c>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
@@ -12507,15 +14830,36 @@
     </row>
     <row r="17" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>3750</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>4083</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>3883</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>4216</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>3933</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>4266</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>3983</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>4316</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>4033</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>4366</v>
+      </c>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
@@ -12550,15 +14894,36 @@
     </row>
     <row r="18" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>3751</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>4084</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>3884</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>4217</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>3934</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>4267</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>3984</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>4317</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>4034</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>4367</v>
+      </c>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
@@ -12593,15 +14958,36 @@
     </row>
     <row r="19" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>3752</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>4085</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>3885</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>4218</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>3935</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>4268</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>3985</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>4318</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>4035</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>4368</v>
+      </c>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
@@ -12636,15 +15022,36 @@
     </row>
     <row r="20" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>3753</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>4086</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>3886</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>4219</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>3936</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>4269</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>3986</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>4319</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>4036</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>4369</v>
+      </c>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
@@ -12679,15 +15086,36 @@
     </row>
     <row r="21" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>3754</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>4087</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>3887</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>4220</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>3937</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>4270</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>3987</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>4320</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>4037</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>4370</v>
+      </c>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
@@ -12722,15 +15150,36 @@
     </row>
     <row r="22" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>3755</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>4088</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>3888</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>4221</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>3938</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>4271</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>3988</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>4321</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>4038</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>4371</v>
+      </c>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
@@ -12765,15 +15214,36 @@
     </row>
     <row r="23" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>3756</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>4089</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>3889</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>4222</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>3939</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>4272</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>4322</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>4039</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>4372</v>
+      </c>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
@@ -12808,15 +15278,36 @@
     </row>
     <row r="24" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>3757</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>4090</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>3890</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>4223</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>3940</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>4273</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>3990</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>4323</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>4040</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>4373</v>
+      </c>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
@@ -12851,15 +15342,36 @@
     </row>
     <row r="25" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
+      <c r="D25" s="5" t="s">
+        <v>3758</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>4091</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>3891</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>4224</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>3941</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>4274</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>3991</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>4324</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>4041</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>4374</v>
+      </c>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
@@ -12893,15 +15405,36 @@
       <c r="AY25" s="5"/>
     </row>
     <row r="26" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>3759</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>4092</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>3892</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>4225</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>3942</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>4275</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>3992</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>4325</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>4042</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>4375</v>
+      </c>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
@@ -12935,15 +15468,36 @@
       <c r="AY26" s="5"/>
     </row>
     <row r="27" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
+      <c r="D27" s="5" t="s">
+        <v>3760</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>4093</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>3893</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>4226</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>3943</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>4276</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>3993</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>4326</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>4043</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>4376</v>
+      </c>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
@@ -12977,15 +15531,36 @@
       <c r="AY27" s="5"/>
     </row>
     <row r="28" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
+      <c r="D28" s="5" t="s">
+        <v>3761</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>4094</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>3894</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>4227</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>3944</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>4277</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>3994</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>4327</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>4044</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>4377</v>
+      </c>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
@@ -13019,15 +15594,36 @@
       <c r="AY28" s="5"/>
     </row>
     <row r="29" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
+      <c r="D29" s="5" t="s">
+        <v>3762</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>4095</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>3895</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>4228</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>3945</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>4278</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>3995</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>4328</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>4045</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>4378</v>
+      </c>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
@@ -13061,15 +15657,36 @@
       <c r="AY29" s="5"/>
     </row>
     <row r="30" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
+      <c r="D30" s="5" t="s">
+        <v>3763</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>4096</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>3896</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>4229</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>3946</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>4279</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>3996</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>4329</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>4046</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>4379</v>
+      </c>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
@@ -13101,15 +15718,36 @@
       <c r="AY30" s="5"/>
     </row>
     <row r="31" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
+      <c r="D31" s="5" t="s">
+        <v>3764</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>4097</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>3897</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>4230</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>3947</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>4280</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>3997</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>4330</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>4047</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>4380</v>
+      </c>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
@@ -13141,15 +15779,36 @@
       <c r="AY31" s="5"/>
     </row>
     <row r="32" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
+      <c r="D32" s="5" t="s">
+        <v>3765</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>4098</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>3898</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>4231</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>3948</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>4281</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>3998</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>4331</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>4048</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>4381</v>
+      </c>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
@@ -13181,15 +15840,36 @@
       <c r="AY32" s="5"/>
     </row>
     <row r="33" spans="4:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
+      <c r="D33" s="5" t="s">
+        <v>3766</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>4099</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>3899</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>4232</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>3949</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>4282</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>3999</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>4332</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>4049</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>4382</v>
+      </c>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
@@ -13221,15 +15901,36 @@
       <c r="AY33" s="5"/>
     </row>
     <row r="34" spans="4:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
+      <c r="D34" s="5" t="s">
+        <v>3767</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>4100</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>3900</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>4233</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>3950</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>4283</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>4000</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>4333</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>4050</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>4383</v>
+      </c>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
@@ -13261,15 +15962,36 @@
       <c r="AY34" s="5"/>
     </row>
     <row r="35" spans="4:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
+      <c r="D35" s="5" t="s">
+        <v>3768</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>4101</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>3901</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>4234</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>3951</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>4284</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>4001</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>4334</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>4051</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>4384</v>
+      </c>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -13300,15 +16022,36 @@
       <c r="AY35" s="5"/>
     </row>
     <row r="36" spans="4:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
+      <c r="D36" s="5" t="s">
+        <v>3769</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>4102</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>3902</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>4235</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>3952</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>4285</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>4002</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>4335</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>4052</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>4385</v>
+      </c>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
@@ -13339,15 +16082,36 @@
       <c r="AY36" s="5"/>
     </row>
     <row r="37" spans="4:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
+      <c r="D37" s="5" t="s">
+        <v>3770</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>4103</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>3903</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>4236</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>3953</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>4286</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>4003</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>4336</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>4053</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>4386</v>
+      </c>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
@@ -13378,15 +16142,36 @@
       <c r="AY37" s="5"/>
     </row>
     <row r="38" spans="4:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
+      <c r="D38" s="5" t="s">
+        <v>3771</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>4104</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>3904</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>4237</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>3954</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>4287</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>4004</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>4337</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>4054</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>4387</v>
+      </c>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
@@ -13417,15 +16202,36 @@
       <c r="AY38" s="5"/>
     </row>
     <row r="39" spans="4:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
+      <c r="D39" s="5" t="s">
+        <v>3772</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>4105</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>3905</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>4238</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>3955</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>4288</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>4005</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>4338</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>4055</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>4388</v>
+      </c>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
@@ -13456,15 +16262,36 @@
       <c r="AY39" s="5"/>
     </row>
     <row r="40" spans="4:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
+      <c r="D40" s="5" t="s">
+        <v>3773</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>4106</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>3906</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>4239</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>3956</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>4289</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>4006</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>4339</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>4056</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>4389</v>
+      </c>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
@@ -13494,15 +16321,36 @@
       <c r="AY40" s="5"/>
     </row>
     <row r="41" spans="4:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
+      <c r="D41" s="5" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>4107</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>3907</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>4240</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>3957</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>4290</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>4007</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>4340</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>4057</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>4390</v>
+      </c>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
@@ -13532,15 +16380,36 @@
       <c r="AY41" s="5"/>
     </row>
     <row r="42" spans="4:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
+      <c r="D42" s="5" t="s">
+        <v>3775</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>4108</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>3908</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>4241</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>3958</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>4291</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>4008</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>4341</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>4058</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>4391</v>
+      </c>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
@@ -13570,15 +16439,36 @@
       <c r="AY42" s="5"/>
     </row>
     <row r="43" spans="4:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
+      <c r="D43" s="5" t="s">
+        <v>3776</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>4109</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>3909</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>4242</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>3959</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>4292</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>4009</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>4342</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>4059</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>4392</v>
+      </c>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
@@ -13608,15 +16498,36 @@
       <c r="AY43" s="5"/>
     </row>
     <row r="44" spans="4:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
+      <c r="D44" s="5" t="s">
+        <v>3777</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>4110</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>3910</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>4243</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>3960</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>4293</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>4010</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>4343</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>4060</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>4393</v>
+      </c>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
@@ -13646,15 +16557,36 @@
       <c r="AY44" s="5"/>
     </row>
     <row r="45" spans="4:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
+      <c r="D45" s="5" t="s">
+        <v>3778</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>4111</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>3911</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>4244</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>3961</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>4294</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>4011</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>4344</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>4061</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>4394</v>
+      </c>
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
@@ -13682,15 +16614,36 @@
       <c r="AY45" s="5"/>
     </row>
     <row r="46" spans="4:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
+      <c r="D46" s="5" t="s">
+        <v>3779</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>4112</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>3912</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>4245</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>3962</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>4295</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>4012</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>4345</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>4062</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>4395</v>
+      </c>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
@@ -13718,15 +16671,36 @@
       <c r="AY46" s="5"/>
     </row>
     <row r="47" spans="4:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
+      <c r="D47" s="5" t="s">
+        <v>3780</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>4113</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>3913</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>4246</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>3963</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>4296</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>4013</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>4346</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>4063</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>4396</v>
+      </c>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
@@ -13754,15 +16728,36 @@
       <c r="AY47" s="5"/>
     </row>
     <row r="48" spans="4:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
+      <c r="D48" s="5" t="s">
+        <v>3781</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>4114</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>3914</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>4247</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>3964</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>4297</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>4014</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>4347</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>4064</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>4397</v>
+      </c>
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
@@ -13790,15 +16785,36 @@
       <c r="AY48" s="5"/>
     </row>
     <row r="49" spans="4:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
+      <c r="D49" s="5" t="s">
+        <v>3782</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>4115</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>3915</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>4248</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>3965</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>4298</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>4015</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>4348</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>4065</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>4398</v>
+      </c>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
@@ -13825,15 +16841,36 @@
       <c r="AY49" s="5"/>
     </row>
     <row r="50" spans="4:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
+      <c r="D50" s="5" t="s">
+        <v>3783</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>4116</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>3916</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>4249</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>3966</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>4299</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>4016</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>4349</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>4066</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>4399</v>
+      </c>
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
@@ -13860,15 +16897,36 @@
       <c r="AY50" s="5"/>
     </row>
     <row r="51" spans="4:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
+      <c r="D51" s="5" t="s">
+        <v>3784</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>4117</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>3917</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>4250</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>3967</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>4300</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>4017</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>4350</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>4067</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>4400</v>
+      </c>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
@@ -13894,9 +16952,13 @@
       <c r="AX51" s="5"/>
       <c r="AY51" s="5"/>
     </row>
-    <row r="52" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
+    <row r="52" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D52" s="5" t="s">
+        <v>3785</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>4118</v>
+      </c>
       <c r="G52" s="5"/>
       <c r="I52" s="4"/>
       <c r="J52" s="5"/>
@@ -13927,9 +16989,13 @@
       <c r="AX52" s="5"/>
       <c r="AY52" s="5"/>
     </row>
-    <row r="53" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
+    <row r="53" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D53" s="5" t="s">
+        <v>3786</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>4119</v>
+      </c>
       <c r="G53" s="5"/>
       <c r="I53" s="4"/>
       <c r="J53" s="5"/>
@@ -13960,9 +17026,13 @@
       <c r="AX53" s="5"/>
       <c r="AY53" s="5"/>
     </row>
-    <row r="54" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
+    <row r="54" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D54" s="5" t="s">
+        <v>3787</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>4120</v>
+      </c>
       <c r="G54" s="5"/>
       <c r="I54" s="4"/>
       <c r="J54" s="5"/>
@@ -13993,9 +17063,13 @@
       <c r="AX54" s="5"/>
       <c r="AY54" s="5"/>
     </row>
-    <row r="55" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
+    <row r="55" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D55" s="5" t="s">
+        <v>3788</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>4121</v>
+      </c>
       <c r="G55" s="5"/>
       <c r="I55" s="4"/>
       <c r="J55" s="5"/>
@@ -14026,9 +17100,13 @@
       <c r="AX55" s="5"/>
       <c r="AY55" s="5"/>
     </row>
-    <row r="56" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
+    <row r="56" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D56" s="5" t="s">
+        <v>3789</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>4122</v>
+      </c>
       <c r="G56" s="5"/>
       <c r="I56" s="4"/>
       <c r="J56" s="5"/>
@@ -14059,9 +17137,13 @@
       <c r="AX56" s="5"/>
       <c r="AY56" s="5"/>
     </row>
-    <row r="57" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
+    <row r="57" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D57" s="5" t="s">
+        <v>3790</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>4123</v>
+      </c>
       <c r="G57" s="5"/>
       <c r="I57" s="4"/>
       <c r="J57" s="5"/>
@@ -14092,9 +17174,13 @@
       <c r="AX57" s="5"/>
       <c r="AY57" s="5"/>
     </row>
-    <row r="58" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
+    <row r="58" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D58" s="5" t="s">
+        <v>3791</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>4124</v>
+      </c>
       <c r="G58" s="5"/>
       <c r="I58" s="4"/>
       <c r="J58" s="5"/>
@@ -14125,9 +17211,13 @@
       <c r="AX58" s="5"/>
       <c r="AY58" s="5"/>
     </row>
-    <row r="59" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
+    <row r="59" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D59" s="5" t="s">
+        <v>3792</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>4125</v>
+      </c>
       <c r="G59" s="5"/>
       <c r="I59" s="4"/>
       <c r="J59" s="5"/>
@@ -14158,9 +17248,13 @@
       <c r="AX59" s="5"/>
       <c r="AY59" s="5"/>
     </row>
-    <row r="60" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
+    <row r="60" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D60" s="5" t="s">
+        <v>3793</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>4126</v>
+      </c>
       <c r="G60" s="5"/>
       <c r="I60" s="4"/>
       <c r="J60" s="5"/>
@@ -14191,9 +17285,13 @@
       <c r="AX60" s="5"/>
       <c r="AY60" s="5"/>
     </row>
-    <row r="61" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
+    <row r="61" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D61" s="5" t="s">
+        <v>3794</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>4127</v>
+      </c>
       <c r="G61" s="5"/>
       <c r="I61" s="4"/>
       <c r="J61" s="5"/>
@@ -14224,9 +17322,13 @@
       <c r="AX61" s="5"/>
       <c r="AY61" s="5"/>
     </row>
-    <row r="62" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
+    <row r="62" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D62" s="5" t="s">
+        <v>3795</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>4128</v>
+      </c>
       <c r="G62" s="5"/>
       <c r="I62" s="4"/>
       <c r="J62" s="5"/>
@@ -14257,9 +17359,13 @@
       <c r="AX62" s="5"/>
       <c r="AY62" s="5"/>
     </row>
-    <row r="63" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
+    <row r="63" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D63" s="5" t="s">
+        <v>3796</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>4129</v>
+      </c>
       <c r="G63" s="5"/>
       <c r="I63" s="4"/>
       <c r="J63" s="5"/>
@@ -14290,9 +17396,13 @@
       <c r="AX63" s="5"/>
       <c r="AY63" s="5"/>
     </row>
-    <row r="64" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
+    <row r="64" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D64" s="5" t="s">
+        <v>3797</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>4130</v>
+      </c>
       <c r="G64" s="5"/>
       <c r="I64" s="4"/>
       <c r="J64" s="5"/>
@@ -14323,9 +17433,13 @@
       <c r="AX64" s="5"/>
       <c r="AY64" s="5"/>
     </row>
-    <row r="65" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
+    <row r="65" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D65" s="5" t="s">
+        <v>3798</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>4131</v>
+      </c>
       <c r="G65" s="5"/>
       <c r="I65" s="4"/>
       <c r="J65" s="5"/>
@@ -14356,9 +17470,13 @@
       <c r="AX65" s="5"/>
       <c r="AY65" s="5"/>
     </row>
-    <row r="66" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
+    <row r="66" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D66" s="5" t="s">
+        <v>3799</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>4132</v>
+      </c>
       <c r="G66" s="5"/>
       <c r="I66" s="4"/>
       <c r="J66" s="5"/>
@@ -14389,9 +17507,13 @@
       <c r="AX66" s="5"/>
       <c r="AY66" s="5"/>
     </row>
-    <row r="67" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
+    <row r="67" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D67" s="5" t="s">
+        <v>3800</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>4133</v>
+      </c>
       <c r="G67" s="5"/>
       <c r="I67" s="4"/>
       <c r="J67" s="5"/>
@@ -14422,9 +17544,13 @@
       <c r="AX67" s="5"/>
       <c r="AY67" s="5"/>
     </row>
-    <row r="68" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
+    <row r="68" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D68" s="5" t="s">
+        <v>3801</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>4134</v>
+      </c>
       <c r="G68" s="5"/>
       <c r="I68" s="4"/>
       <c r="J68" s="5"/>
@@ -14455,9 +17581,13 @@
       <c r="AX68" s="5"/>
       <c r="AY68" s="5"/>
     </row>
-    <row r="69" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
+    <row r="69" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D69" s="5" t="s">
+        <v>3802</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>4135</v>
+      </c>
       <c r="G69" s="5"/>
       <c r="I69" s="4"/>
       <c r="J69" s="5"/>
@@ -14488,9 +17618,13 @@
       <c r="AX69" s="5"/>
       <c r="AY69" s="5"/>
     </row>
-    <row r="70" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
+    <row r="70" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D70" s="5" t="s">
+        <v>3803</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>4136</v>
+      </c>
       <c r="G70" s="5"/>
       <c r="I70" s="4"/>
       <c r="J70" s="5"/>
@@ -14521,9 +17655,13 @@
       <c r="AX70" s="5"/>
       <c r="AY70" s="5"/>
     </row>
-    <row r="71" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
+    <row r="71" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D71" s="5" t="s">
+        <v>3804</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>4137</v>
+      </c>
       <c r="G71" s="5"/>
       <c r="I71" s="4"/>
       <c r="J71" s="5"/>
@@ -14554,9 +17692,13 @@
       <c r="AX71" s="5"/>
       <c r="AY71" s="5"/>
     </row>
-    <row r="72" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
+    <row r="72" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D72" s="5" t="s">
+        <v>3805</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>4138</v>
+      </c>
       <c r="G72" s="5"/>
       <c r="I72" s="4"/>
       <c r="J72" s="5"/>
@@ -14587,9 +17729,13 @@
       <c r="AX72" s="5"/>
       <c r="AY72" s="5"/>
     </row>
-    <row r="73" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
+    <row r="73" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D73" s="5" t="s">
+        <v>3806</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>4139</v>
+      </c>
       <c r="G73" s="5"/>
       <c r="I73" s="4"/>
       <c r="J73" s="5"/>
@@ -14620,9 +17766,13 @@
       <c r="AX73" s="5"/>
       <c r="AY73" s="5"/>
     </row>
-    <row r="74" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
+    <row r="74" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D74" s="5" t="s">
+        <v>3807</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>4140</v>
+      </c>
       <c r="G74" s="5"/>
       <c r="I74" s="4"/>
       <c r="J74" s="5"/>
@@ -14653,9 +17803,13 @@
       <c r="AX74" s="5"/>
       <c r="AY74" s="5"/>
     </row>
-    <row r="75" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
+    <row r="75" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D75" s="5" t="s">
+        <v>3808</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>4141</v>
+      </c>
       <c r="G75" s="5"/>
       <c r="I75" s="4"/>
       <c r="J75" s="5"/>
@@ -14686,9 +17840,13 @@
       <c r="AX75" s="5"/>
       <c r="AY75" s="5"/>
     </row>
-    <row r="76" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
+    <row r="76" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D76" s="5" t="s">
+        <v>3809</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>4142</v>
+      </c>
       <c r="G76" s="5"/>
       <c r="I76" s="4"/>
       <c r="J76" s="5"/>
@@ -14719,9 +17877,13 @@
       <c r="AX76" s="5"/>
       <c r="AY76" s="5"/>
     </row>
-    <row r="77" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
+    <row r="77" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D77" s="5" t="s">
+        <v>3810</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>4143</v>
+      </c>
       <c r="G77" s="5"/>
       <c r="I77" s="4"/>
       <c r="J77" s="5"/>
@@ -14752,9 +17914,13 @@
       <c r="AX77" s="5"/>
       <c r="AY77" s="5"/>
     </row>
-    <row r="78" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
+    <row r="78" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D78" s="5" t="s">
+        <v>3811</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>4144</v>
+      </c>
       <c r="G78" s="5"/>
       <c r="I78" s="4"/>
       <c r="J78" s="5"/>
@@ -14785,9 +17951,13 @@
       <c r="AX78" s="5"/>
       <c r="AY78" s="5"/>
     </row>
-    <row r="79" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
+    <row r="79" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D79" s="5" t="s">
+        <v>3812</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>4145</v>
+      </c>
       <c r="G79" s="5"/>
       <c r="I79" s="4"/>
       <c r="J79" s="5"/>
@@ -14818,9 +17988,13 @@
       <c r="AX79" s="5"/>
       <c r="AY79" s="5"/>
     </row>
-    <row r="80" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
+    <row r="80" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D80" s="5" t="s">
+        <v>3813</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>4146</v>
+      </c>
       <c r="G80" s="5"/>
       <c r="I80" s="4"/>
       <c r="J80" s="5"/>
@@ -14849,9 +18023,13 @@
       <c r="AX80" s="5"/>
       <c r="AY80" s="5"/>
     </row>
-    <row r="81" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
+    <row r="81" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D81" s="5" t="s">
+        <v>3814</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>4147</v>
+      </c>
       <c r="G81" s="5"/>
       <c r="I81" s="4"/>
       <c r="J81" s="5"/>
@@ -14880,9 +18058,13 @@
       <c r="AX81" s="5"/>
       <c r="AY81" s="5"/>
     </row>
-    <row r="82" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
+    <row r="82" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D82" s="5" t="s">
+        <v>3815</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>4148</v>
+      </c>
       <c r="G82" s="5"/>
       <c r="I82" s="4"/>
       <c r="J82" s="5"/>
@@ -14911,9 +18093,13 @@
       <c r="AX82" s="5"/>
       <c r="AY82" s="5"/>
     </row>
-    <row r="83" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
+    <row r="83" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D83" s="5" t="s">
+        <v>3816</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>4149</v>
+      </c>
       <c r="G83" s="5"/>
       <c r="I83" s="4"/>
       <c r="J83" s="5"/>
@@ -14942,9 +18128,13 @@
       <c r="AX83" s="5"/>
       <c r="AY83" s="5"/>
     </row>
-    <row r="84" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
+    <row r="84" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D84" s="5" t="s">
+        <v>3817</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>4150</v>
+      </c>
       <c r="G84" s="5"/>
       <c r="I84" s="4"/>
       <c r="J84" s="5"/>
@@ -14973,9 +18163,13 @@
       <c r="AX84" s="5"/>
       <c r="AY84" s="5"/>
     </row>
-    <row r="85" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
+    <row r="85" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D85" s="5" t="s">
+        <v>3818</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>4151</v>
+      </c>
       <c r="G85" s="5"/>
       <c r="I85" s="4"/>
       <c r="J85" s="5"/>
@@ -15003,9 +18197,13 @@
       <c r="AX85" s="5"/>
       <c r="AY85" s="5"/>
     </row>
-    <row r="86" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
+    <row r="86" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D86" s="5" t="s">
+        <v>3819</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>4152</v>
+      </c>
       <c r="G86" s="5"/>
       <c r="I86" s="4"/>
       <c r="J86" s="5"/>
@@ -15033,9 +18231,13 @@
       <c r="AX86" s="5"/>
       <c r="AY86" s="5"/>
     </row>
-    <row r="87" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
+    <row r="87" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D87" s="5" t="s">
+        <v>3820</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>4153</v>
+      </c>
       <c r="G87" s="5"/>
       <c r="I87" s="4"/>
       <c r="J87" s="5"/>
@@ -15063,9 +18265,13 @@
       <c r="AX87" s="5"/>
       <c r="AY87" s="5"/>
     </row>
-    <row r="88" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
+    <row r="88" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D88" s="5" t="s">
+        <v>3821</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>4154</v>
+      </c>
       <c r="G88" s="5"/>
       <c r="I88" s="4"/>
       <c r="J88" s="5"/>
@@ -15093,9 +18299,13 @@
       <c r="AX88" s="5"/>
       <c r="AY88" s="5"/>
     </row>
-    <row r="89" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
+    <row r="89" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D89" s="5" t="s">
+        <v>3822</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>4155</v>
+      </c>
       <c r="G89" s="5"/>
       <c r="I89" s="4"/>
       <c r="J89" s="5"/>
@@ -15123,9 +18333,13 @@
       <c r="AX89" s="5"/>
       <c r="AY89" s="5"/>
     </row>
-    <row r="90" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
+    <row r="90" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D90" s="5" t="s">
+        <v>3823</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>4156</v>
+      </c>
       <c r="G90" s="5"/>
       <c r="I90" s="4"/>
       <c r="J90" s="5"/>
@@ -15153,9 +18367,13 @@
       <c r="AX90" s="5"/>
       <c r="AY90" s="5"/>
     </row>
-    <row r="91" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
+    <row r="91" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D91" s="5" t="s">
+        <v>3824</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>4157</v>
+      </c>
       <c r="G91" s="5"/>
       <c r="I91" s="4"/>
       <c r="J91" s="5"/>
@@ -15183,9 +18401,13 @@
       <c r="AX91" s="5"/>
       <c r="AY91" s="5"/>
     </row>
-    <row r="92" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
+    <row r="92" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D92" s="5" t="s">
+        <v>3825</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>4158</v>
+      </c>
       <c r="G92" s="5"/>
       <c r="I92" s="4"/>
       <c r="J92" s="5"/>
@@ -15211,9 +18433,13 @@
       <c r="AX92" s="5"/>
       <c r="AY92" s="5"/>
     </row>
-    <row r="93" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
+    <row r="93" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D93" s="5" t="s">
+        <v>3826</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>4159</v>
+      </c>
       <c r="G93" s="5"/>
       <c r="I93" s="4"/>
       <c r="J93" s="5"/>
@@ -15239,9 +18465,13 @@
       <c r="AX93" s="5"/>
       <c r="AY93" s="5"/>
     </row>
-    <row r="94" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
+    <row r="94" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D94" s="5" t="s">
+        <v>3827</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>4160</v>
+      </c>
       <c r="G94" s="5"/>
       <c r="I94" s="4"/>
       <c r="J94" s="5"/>
@@ -15267,9 +18497,13 @@
       <c r="AX94" s="5"/>
       <c r="AY94" s="5"/>
     </row>
-    <row r="95" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
+    <row r="95" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D95" s="5" t="s">
+        <v>3828</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>4161</v>
+      </c>
       <c r="G95" s="5"/>
       <c r="I95" s="4"/>
       <c r="J95" s="5"/>
@@ -15295,9 +18529,13 @@
       <c r="AX95" s="5"/>
       <c r="AY95" s="5"/>
     </row>
-    <row r="96" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
+    <row r="96" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D96" s="5" t="s">
+        <v>3829</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>4162</v>
+      </c>
       <c r="G96" s="5"/>
       <c r="I96" s="4"/>
       <c r="J96" s="5"/>
@@ -15323,9 +18561,13 @@
       <c r="AX96" s="5"/>
       <c r="AY96" s="5"/>
     </row>
-    <row r="97" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
+    <row r="97" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D97" s="5" t="s">
+        <v>3830</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>4163</v>
+      </c>
       <c r="G97" s="5"/>
       <c r="I97" s="4"/>
       <c r="J97" s="5"/>
@@ -15351,9 +18593,13 @@
       <c r="AX97" s="5"/>
       <c r="AY97" s="5"/>
     </row>
-    <row r="98" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
+    <row r="98" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D98" s="5" t="s">
+        <v>3831</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>4164</v>
+      </c>
       <c r="G98" s="5"/>
       <c r="I98" s="4"/>
       <c r="J98" s="5"/>
@@ -15379,9 +18625,13 @@
       <c r="AX98" s="5"/>
       <c r="AY98" s="5"/>
     </row>
-    <row r="99" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
+    <row r="99" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D99" s="5" t="s">
+        <v>3832</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>4165</v>
+      </c>
       <c r="G99" s="5"/>
       <c r="I99" s="4"/>
       <c r="J99" s="5"/>
@@ -15407,9 +18657,13 @@
       <c r="AX99" s="5"/>
       <c r="AY99" s="5"/>
     </row>
-    <row r="100" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
+    <row r="100" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D100" s="5" t="s">
+        <v>3833</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>4166</v>
+      </c>
       <c r="G100" s="5"/>
       <c r="I100" s="4"/>
       <c r="J100" s="5"/>
@@ -15435,9 +18689,13 @@
       <c r="AX100" s="5"/>
       <c r="AY100" s="5"/>
     </row>
-    <row r="101" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
+    <row r="101" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D101" s="5" t="s">
+        <v>3834</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>4167</v>
+      </c>
       <c r="G101" s="5"/>
       <c r="I101" s="4"/>
       <c r="J101" s="5"/>
@@ -15463,9 +18721,13 @@
       <c r="AX101" s="5"/>
       <c r="AY101" s="5"/>
     </row>
-    <row r="102" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
+    <row r="102" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D102" s="5" t="s">
+        <v>3835</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>4168</v>
+      </c>
       <c r="G102" s="5"/>
       <c r="I102" s="4"/>
       <c r="J102" s="5"/>
@@ -15491,9 +18753,13 @@
       <c r="AX102" s="5"/>
       <c r="AY102" s="5"/>
     </row>
-    <row r="103" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
+    <row r="103" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D103" s="5" t="s">
+        <v>3836</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>4169</v>
+      </c>
       <c r="G103" s="5"/>
       <c r="I103" s="4"/>
       <c r="J103" s="5"/>
@@ -15519,9 +18785,13 @@
       <c r="AX103" s="5"/>
       <c r="AY103" s="5"/>
     </row>
-    <row r="104" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
+    <row r="104" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D104" s="5" t="s">
+        <v>3837</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>4170</v>
+      </c>
       <c r="G104" s="5"/>
       <c r="I104" s="4"/>
       <c r="J104" s="5"/>
@@ -15547,9 +18817,13 @@
       <c r="AX104" s="5"/>
       <c r="AY104" s="5"/>
     </row>
-    <row r="105" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
+    <row r="105" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D105" s="5" t="s">
+        <v>3838</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>4171</v>
+      </c>
       <c r="G105" s="5"/>
       <c r="I105" s="4"/>
       <c r="J105" s="5"/>
@@ -15575,9 +18849,13 @@
       <c r="AX105" s="5"/>
       <c r="AY105" s="5"/>
     </row>
-    <row r="106" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
+    <row r="106" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D106" s="5" t="s">
+        <v>3839</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>4172</v>
+      </c>
       <c r="G106" s="5"/>
       <c r="I106" s="4"/>
       <c r="J106" s="5"/>
@@ -15603,9 +18881,13 @@
       <c r="AX106" s="5"/>
       <c r="AY106" s="5"/>
     </row>
-    <row r="107" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
+    <row r="107" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D107" s="5" t="s">
+        <v>3840</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>4173</v>
+      </c>
       <c r="G107" s="5"/>
       <c r="I107" s="4"/>
       <c r="J107" s="5"/>
@@ -15631,9 +18913,13 @@
       <c r="AX107" s="5"/>
       <c r="AY107" s="5"/>
     </row>
-    <row r="108" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
+    <row r="108" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D108" s="5" t="s">
+        <v>3841</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>4174</v>
+      </c>
       <c r="G108" s="5"/>
       <c r="I108" s="4"/>
       <c r="J108" s="5"/>
@@ -15659,9 +18945,13 @@
       <c r="AX108" s="5"/>
       <c r="AY108" s="5"/>
     </row>
-    <row r="109" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
+    <row r="109" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D109" s="5" t="s">
+        <v>3842</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>4175</v>
+      </c>
       <c r="G109" s="5"/>
       <c r="I109" s="4"/>
       <c r="J109" s="5"/>
@@ -15687,9 +18977,13 @@
       <c r="AX109" s="5"/>
       <c r="AY109" s="5"/>
     </row>
-    <row r="110" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
+    <row r="110" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D110" s="5" t="s">
+        <v>3843</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>4176</v>
+      </c>
       <c r="G110" s="5"/>
       <c r="I110" s="4"/>
       <c r="J110" s="5"/>
@@ -15715,9 +19009,13 @@
       <c r="AX110" s="5"/>
       <c r="AY110" s="5"/>
     </row>
-    <row r="111" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
+    <row r="111" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D111" s="5" t="s">
+        <v>3844</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>4177</v>
+      </c>
       <c r="G111" s="5"/>
       <c r="I111" s="4"/>
       <c r="J111" s="5"/>
@@ -15743,9 +19041,13 @@
       <c r="AX111" s="5"/>
       <c r="AY111" s="5"/>
     </row>
-    <row r="112" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
+    <row r="112" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D112" s="5" t="s">
+        <v>3845</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>4178</v>
+      </c>
       <c r="G112" s="5"/>
       <c r="I112" s="4"/>
       <c r="J112" s="5"/>
@@ -15771,9 +19073,13 @@
       <c r="AX112" s="5"/>
       <c r="AY112" s="5"/>
     </row>
-    <row r="113" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
+    <row r="113" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D113" s="5" t="s">
+        <v>3846</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>4179</v>
+      </c>
       <c r="G113" s="5"/>
       <c r="I113" s="4"/>
       <c r="J113" s="5"/>
@@ -15799,9 +19105,13 @@
       <c r="AX113" s="5"/>
       <c r="AY113" s="5"/>
     </row>
-    <row r="114" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
+    <row r="114" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D114" s="5" t="s">
+        <v>3847</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>4180</v>
+      </c>
       <c r="G114" s="5"/>
       <c r="I114" s="4"/>
       <c r="J114" s="5"/>
@@ -15827,9 +19137,13 @@
       <c r="AX114" s="5"/>
       <c r="AY114" s="5"/>
     </row>
-    <row r="115" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
+    <row r="115" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D115" s="5" t="s">
+        <v>3848</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>4181</v>
+      </c>
       <c r="G115" s="5"/>
       <c r="I115" s="4"/>
       <c r="J115" s="5"/>
@@ -15855,9 +19169,13 @@
       <c r="AX115" s="5"/>
       <c r="AY115" s="5"/>
     </row>
-    <row r="116" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
+    <row r="116" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D116" s="5" t="s">
+        <v>3849</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>4182</v>
+      </c>
       <c r="G116" s="5"/>
       <c r="I116" s="4"/>
       <c r="J116" s="5"/>
@@ -15883,9 +19201,13 @@
       <c r="AX116" s="5"/>
       <c r="AY116" s="5"/>
     </row>
-    <row r="117" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
+    <row r="117" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D117" s="5" t="s">
+        <v>3850</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>4183</v>
+      </c>
       <c r="G117" s="5"/>
       <c r="I117" s="4"/>
       <c r="J117" s="5"/>
@@ -15911,9 +19233,13 @@
       <c r="AX117" s="5"/>
       <c r="AY117" s="5"/>
     </row>
-    <row r="118" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
+    <row r="118" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D118" s="5" t="s">
+        <v>3851</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>4184</v>
+      </c>
       <c r="G118" s="5"/>
       <c r="I118" s="4"/>
       <c r="J118" s="5"/>
@@ -15939,9 +19265,13 @@
       <c r="AX118" s="5"/>
       <c r="AY118" s="5"/>
     </row>
-    <row r="119" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
+    <row r="119" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D119" s="5" t="s">
+        <v>3852</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>4185</v>
+      </c>
       <c r="G119" s="5"/>
       <c r="I119" s="4"/>
       <c r="J119" s="5"/>
@@ -15967,9 +19297,13 @@
       <c r="AX119" s="5"/>
       <c r="AY119" s="5"/>
     </row>
-    <row r="120" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
+    <row r="120" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D120" s="5" t="s">
+        <v>3853</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>4186</v>
+      </c>
       <c r="G120" s="5"/>
       <c r="I120" s="4"/>
       <c r="J120" s="5"/>
@@ -15995,9 +19329,13 @@
       <c r="AX120" s="5"/>
       <c r="AY120" s="5"/>
     </row>
-    <row r="121" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
+    <row r="121" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D121" s="5" t="s">
+        <v>3854</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>4187</v>
+      </c>
       <c r="G121" s="5"/>
       <c r="I121" s="4"/>
       <c r="J121" s="5"/>
@@ -16023,9 +19361,13 @@
       <c r="AX121" s="5"/>
       <c r="AY121" s="5"/>
     </row>
-    <row r="122" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
+    <row r="122" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D122" s="5" t="s">
+        <v>3855</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>4188</v>
+      </c>
       <c r="G122" s="5"/>
       <c r="I122" s="4"/>
       <c r="J122" s="5"/>
@@ -16051,9 +19393,13 @@
       <c r="AX122" s="5"/>
       <c r="AY122" s="5"/>
     </row>
-    <row r="123" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
+    <row r="123" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D123" s="5" t="s">
+        <v>3856</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>4189</v>
+      </c>
       <c r="G123" s="5"/>
       <c r="I123" s="4"/>
       <c r="J123" s="5"/>
@@ -16079,9 +19425,13 @@
       <c r="AX123" s="5"/>
       <c r="AY123" s="5"/>
     </row>
-    <row r="124" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
+    <row r="124" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D124" s="5" t="s">
+        <v>3857</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>4190</v>
+      </c>
       <c r="G124" s="5"/>
       <c r="I124" s="4"/>
       <c r="J124" s="5"/>
@@ -16107,9 +19457,13 @@
       <c r="AX124" s="5"/>
       <c r="AY124" s="5"/>
     </row>
-    <row r="125" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
+    <row r="125" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D125" s="5" t="s">
+        <v>3858</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>4191</v>
+      </c>
       <c r="G125" s="5"/>
       <c r="I125" s="4"/>
       <c r="J125" s="5"/>
@@ -16135,9 +19489,13 @@
       <c r="AX125" s="5"/>
       <c r="AY125" s="5"/>
     </row>
-    <row r="126" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
+    <row r="126" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D126" s="5" t="s">
+        <v>3859</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>4192</v>
+      </c>
       <c r="G126" s="5"/>
       <c r="I126" s="4"/>
       <c r="J126" s="5"/>
@@ -16163,9 +19521,13 @@
       <c r="AX126" s="5"/>
       <c r="AY126" s="5"/>
     </row>
-    <row r="127" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
+    <row r="127" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D127" s="5" t="s">
+        <v>3860</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>4193</v>
+      </c>
       <c r="G127" s="5"/>
       <c r="I127" s="4"/>
       <c r="J127" s="5"/>
@@ -16191,9 +19553,13 @@
       <c r="AX127" s="5"/>
       <c r="AY127" s="5"/>
     </row>
-    <row r="128" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
+    <row r="128" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D128" s="5" t="s">
+        <v>3861</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>4194</v>
+      </c>
       <c r="G128" s="5"/>
       <c r="I128" s="4"/>
       <c r="J128" s="5"/>
@@ -16219,9 +19585,13 @@
       <c r="AX128" s="5"/>
       <c r="AY128" s="5"/>
     </row>
-    <row r="129" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
+    <row r="129" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D129" s="5" t="s">
+        <v>3862</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>4195</v>
+      </c>
       <c r="G129" s="5"/>
       <c r="I129" s="4"/>
       <c r="J129" s="5"/>
@@ -16247,9 +19617,13 @@
       <c r="AX129" s="5"/>
       <c r="AY129" s="5"/>
     </row>
-    <row r="130" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
+    <row r="130" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D130" s="5" t="s">
+        <v>3863</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>4196</v>
+      </c>
       <c r="G130" s="5"/>
       <c r="I130" s="4"/>
       <c r="J130" s="5"/>
@@ -16275,9 +19649,13 @@
       <c r="AX130" s="5"/>
       <c r="AY130" s="5"/>
     </row>
-    <row r="131" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
+    <row r="131" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D131" s="5" t="s">
+        <v>3864</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>4197</v>
+      </c>
       <c r="G131" s="5"/>
       <c r="I131" s="4"/>
       <c r="J131" s="5"/>
@@ -16303,9 +19681,13 @@
       <c r="AX131" s="5"/>
       <c r="AY131" s="5"/>
     </row>
-    <row r="132" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
+    <row r="132" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D132" s="5" t="s">
+        <v>3865</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>4198</v>
+      </c>
       <c r="G132" s="5"/>
       <c r="I132" s="4"/>
       <c r="J132" s="5"/>
@@ -16331,9 +19713,13 @@
       <c r="AX132" s="5"/>
       <c r="AY132" s="5"/>
     </row>
-    <row r="133" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
+    <row r="133" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D133" s="5" t="s">
+        <v>3866</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>4199</v>
+      </c>
       <c r="G133" s="5"/>
       <c r="I133" s="4"/>
       <c r="J133" s="5"/>
@@ -16359,9 +19745,13 @@
       <c r="AX133" s="5"/>
       <c r="AY133" s="5"/>
     </row>
-    <row r="134" spans="4:51" x14ac:dyDescent="0.25">
-      <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
+    <row r="134" spans="4:51" ht="135" x14ac:dyDescent="0.25">
+      <c r="D134" s="5" t="s">
+        <v>3867</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>4200</v>
+      </c>
       <c r="G134" s="5"/>
       <c r="I134" s="4"/>
       <c r="J134" s="5"/>
